--- a/output/ValueSet-vs-leucocytes-diptest-finding.xlsx
+++ b/output/ValueSet-vs-leucocytes-diptest-finding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-leucocytes-diptest-finding.xlsx
+++ b/output/ValueSet-vs-leucocytes-diptest-finding.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-leucocytes-diptest-finding.xlsx
+++ b/output/ValueSet-vs-leucocytes-diptest-finding.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-leucocytes-diptest-finding</t>
+    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-leucocytes-diptest-finding</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
